--- a/result.xlsx
+++ b/result.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>in</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>à</t>
+          <t>in</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>am</t>
+          <t>for</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>is</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>is</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>on</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>that</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>die</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>by</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>av</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>this</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>with</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>vous</t>
+          <t>jij</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>it</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>not</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>geen</t>
+          <t>non</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>or</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>be</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>are</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>from</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fra</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>at</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>som</t>
+          <t>as</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>your</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>din</t>
+          <t>your</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>ολα</t>
+          <t>alle</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>an</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>een</t>
+          <t>an</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>was</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>var</t>
+          <t>was</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>was</t>
+          <t>will</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>zal</t>
+          <t>sera</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>home</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>αρχική-σελίδα</t>
+          <t>home</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>can</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>peut</t>
+          <t>can</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>us</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ons</t>
+          <t>us</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>about</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2329,12 +2329,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>om</t>
+          <t>over</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>us</t>
+          <t>if</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>page</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>pagina</t>
+          <t>page</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>my</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>has</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>search</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>søk</t>
+          <t>zoeken</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>has</t>
+          <t>free</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ledig</t>
+          <t>vrij</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>but</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>maar</t>
+          <t>kun</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>our</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>onze</t>
+          <t>vårt</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>één</t>
+          <t>ett</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>autre</t>
+          <t>annet</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2977,12 +2977,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>nac ydw</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>information</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>στις πληροφορίες</t>
+          <t>information</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3083,12 +3083,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>tid</t>
+          <t>tijd</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>perterritos</t>
+          <t>they</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>he</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>hij</t>
+          <t>he</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>up</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>opp</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>may</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>mei</t>
+          <t>mai</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>wat</t>
+          <t>quid</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>which</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>som</t>
+          <t>uter</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>their</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>leur</t>
+          <t>deres</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>news</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>out</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>allan</t>
+          <t>uit</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>use</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>any</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>there</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ibi</t>
+          <t>là bas</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>see</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>voir</t>
+          <t>zien</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>only</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>so</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>sic</t>
+          <t>so</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>his</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>hans</t>
+          <t>son</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>when</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>når</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>επικοινωνια</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>here</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>business</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>bedrift</t>
+          <t>business</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>who</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>hvem</t>
+          <t>wie</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>web</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>rete</t>
+          <t>web</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4454,12 +4454,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>nå</t>
+          <t>nawr</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4509,12 +4509,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>aide</t>
+          <t>help</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>get</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>fio</t>
+          <t>gael</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>pm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>yh</t>
+          <t>pm</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>view</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4674,12 +4674,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>vis</t>
+          <t>voir</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pm</t>
+          <t>online</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4729,12 +4729,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>pålogget</t>
+          <t>online</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>am</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4839,12 +4839,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>idem</t>
+          <t>am</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>been</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4894,12 +4894,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>tatt</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>would</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4949,12 +4949,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>zou</t>
+          <t>would</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>sut?</t>
+          <t>hoe</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>am</t>
+          <t>were</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>θα έχουν:</t>
+          <t>waren</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5110,12 +5110,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>moi</t>
+          <t>meg</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>services</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5165,12 +5165,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>obsequia</t>
+          <t>diensten</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>some</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>were</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5275,12 +5275,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>deze</t>
+          <t>disse</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>click</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>κλίκ</t>
+          <t>klikk</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>its</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5381,12 +5381,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>του</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>like</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>faciam</t>
+          <t>liker</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>service</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>than</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>wedyn</t>
+          <t>finn</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>its</t>
+          <t>price</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>prîs</t>
+          <t>prijs</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>back</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5766,12 +5766,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>bakside</t>
+          <t>cefn</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>top</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>κορυφή</t>
+          <t>brig</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>than</t>
+          <t>people</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>pobl</t>
+          <t>mensen</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>had</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>gaeth</t>
+          <t>pla</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>list</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>liste</t>
+          <t>lijst</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>just</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>over</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>had</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>år</t>
+          <t>jaar</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6316,12 +6316,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>jour</t>
+          <t>dag</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>into</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>just</t>
+          <t>email</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6426,12 +6426,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>ebost</t>
+          <t>e-mail</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>two</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>twee</t>
+          <t>dau</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>health</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -6532,12 +6532,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>helse</t>
+          <t>health</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>world</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>y byd</t>
+          <t>monde</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>re</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>next</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>neste</t>
+          <t>suiv</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>used</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>brukt</t>
+          <t>free</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6803,12 +6803,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>gaan</t>
+          <t>gå</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6858,12 +6858,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>gwaith</t>
+          <t>werk</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>last</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>τελευτ.</t>
+          <t>duro</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>most</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6968,12 +6968,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>bijna</t>
+          <t>most</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>products</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>προϊόντα</t>
+          <t>producta</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>music</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>musikk</t>
+          <t>musica</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7133,12 +7133,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>kopen</t>
+          <t>eme</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>δεδομένα</t>
+          <t>data</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>make</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7243,12 +7243,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>φτιαχνω</t>
+          <t>merk</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>them</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>should</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>bør</t>
+          <t>nodere</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>genimen</t>
+          <t>product</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>products</t>
+          <t>system</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -7463,12 +7463,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>systeem</t>
+          <t>system</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>post</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>her</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7628,12 +7628,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>dinas</t>
+          <t>stad</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>add</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>legg til</t>
+          <t>προσθήκη</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -7738,12 +7738,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>pagina</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7793,12 +7793,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>nummer</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>such</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7848,12 +7848,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>den slags</t>
+          <t>sic</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>please</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>available</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>ar gael</t>
+          <t>disponible</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>her</t>
+          <t>copyright</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8068,12 +8068,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>cefnogaeth</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>message</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>μήνυμα</t>
+          <t>message</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8178,12 +8178,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>etter</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>best</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8233,12 +8233,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>optime</t>
+          <t>best</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>software</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8288,12 +8288,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>logiciel</t>
+          <t>software</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>then</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -8343,12 +8343,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>tum</t>
+          <t>dan</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -8398,12 +8398,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>ionawr</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -8453,12 +8453,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>bonum ad te</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>copyright</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>fideo</t>
+          <t>video</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>well</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>puits</t>
+          <t>bene</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -8618,12 +8618,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>waarbij</t>
+          <t>hvor</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>info</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>public</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>books</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>high</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>school</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -8948,12 +8948,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>ysgol</t>
+          <t>school</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>drwy</t>
+          <t>genaamd</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>each</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>links</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>σύνδεσμοι</t>
+          <t>links</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>she</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -9168,12 +9168,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>elle</t>
+          <t>zij</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>review</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -9223,12 +9223,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>omtale</t>
+          <t>review</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>years</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>order</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -9333,12 +9333,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>archeb</t>
+          <t>order</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>very</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -9384,12 +9384,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>très</t>
+          <t>heel</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>privacy</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>απόρρητο</t>
+          <t>privacy</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>book</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>cahier</t>
+          <t>book</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>items</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>company</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>εταιρεία</t>
+          <t>société</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>group</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>gruppe</t>
+          <t>groep</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>many</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -9824,12 +9824,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>llawer</t>
+          <t>mange</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>user</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>said</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9934,12 +9934,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>dixis</t>
+          <t>zei</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>privacy</t>
+          <t>does</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10044,12 +10044,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>facait</t>
+          <t>gjør</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>set</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -10099,12 +10099,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>sett</t>
+          <t>jeu</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>under</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>general</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -10209,12 +10209,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>générale</t>
+          <t>general</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>research</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>έρευνα</t>
+          <t>recherche</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -10319,12 +10319,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>πανεπιστήμιο</t>
+          <t>university</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>january</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -10374,12 +10374,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>lonawr</t>
+          <t>januari</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>kart</t>
+          <t>map</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>said</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10594,12 +10594,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>avis</t>
+          <t>paginae</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -10649,12 +10649,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>πρόγραμμα</t>
+          <t>rhaglen</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>life</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>know</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -10755,12 +10755,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>weten</t>
+          <t>gwybod</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>games</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -10810,12 +10810,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>spill</t>
+          <t>gemau</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>way</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -10865,12 +10865,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>modus</t>
+          <t>weg</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>days</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -10920,12 +10920,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>diwrnod</t>
+          <t>dagen</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -10940,7 +10940,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>management</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -10975,12 +10975,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>procuratio</t>
+          <t>management</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>january</t>
+          <t>part</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -11030,12 +11030,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>avdeling</t>
+          <t>darn</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>mail</t>
+          <t>could</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>great</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>gwych</t>
+          <t>great</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>united</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -11195,12 +11195,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>unis</t>
+          <t>united</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -11250,12 +11250,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>hotell</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>real</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -11305,12 +11305,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>echte</t>
+          <t>réel</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>item</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>international</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -11415,12 +11415,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>διεθνές</t>
+          <t>internationaal</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>center</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -11470,12 +11470,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>canol</t>
+          <t>centre</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>ebay</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>days</t>
+          <t>must</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>doit</t>
+          <t>moet</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>store</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -11635,12 +11635,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>stocker</t>
+          <t>siop</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -11690,12 +11690,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>gå</t>
+          <t>reizen</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -11745,12 +11745,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>σχόλια</t>
+          <t>litterae</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>made</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -11800,12 +11800,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>gwnaed</t>
+          <t>made</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -11820,7 +11820,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>development</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -11855,12 +11855,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>datblygu</t>
+          <t>développement</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>report</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -11910,12 +11910,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>verslag</t>
+          <t>report</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -11965,12 +11965,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>avslag</t>
+          <t>off</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>member</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -12020,12 +12020,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>lid</t>
+          <t>membre</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>details</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -12075,12 +12075,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>λεπτομέρειες</t>
+          <t>details</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -12130,12 +12130,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>lijn</t>
+          <t>ligne</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -12185,12 +12185,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>conditions</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>before</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -12240,12 +12240,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>antea</t>
+          <t>avant</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ebay</t>
+          <t>hotels</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -12295,12 +12295,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>gwesty</t>
+          <t>hotels</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>did</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -12350,12 +12350,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>gjorde</t>
+          <t>una</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -12370,7 +12370,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>send</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -12460,12 +12460,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>droite</t>
+          <t>iawn</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -12515,12 +12515,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>typus</t>
+          <t>type</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>because</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -12570,12 +12570,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>parce que</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -12625,12 +12625,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>lokalt</t>
+          <t>local</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>those</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -12680,12 +12680,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>celles</t>
+          <t>y rhai</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>using</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>results</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -12810,7 +12810,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>office</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -12845,12 +12845,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>kantoor</t>
+          <t>office</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -12900,12 +12900,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>addysg</t>
+          <t>utdanning</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>national</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -13010,12 +13010,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Middle French</t>
+          <t>Brittonic</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>chariot</t>
+          <t>car</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>hotels</t>
+          <t>design</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>take</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>send</t>
+          <t>posted</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -13175,12 +13175,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>gepost</t>
+          <t>posté</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Brittonic</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -13250,7 +13250,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>address</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -13285,12 +13285,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Old English</t>
+          <t>Old Norse</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>adres</t>
+          <t>adresse</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>community</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -13340,12 +13340,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Old Norse</t>
+          <t>Middle French</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>samfunn</t>
+          <t>communauté</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>within</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -13395,12 +13395,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>Old English</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>intus</t>
+          <t>binnen</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work work\englisc\computational linguistics\evil twin\english-etymology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F5031-37A3-4049-A94E-5219C41C3D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED3028-4A12-4E13-9A3D-D264214CEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1066">
   <si>
     <t>Latin</t>
   </si>
@@ -3225,6 +3225,12 @@
   </si>
   <si>
     <t>Epiphan-PanPhon estimated closest word</t>
+  </si>
+  <si>
+    <t>Total Exact Matches:</t>
+  </si>
+  <si>
+    <t>Percentage:</t>
   </si>
 </sst>
 </file>
@@ -5476,9 +5482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K257" sqref="K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5491,7 +5497,7 @@
     <col min="6" max="6" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.21875" style="2" bestFit="1" customWidth="1"/>
@@ -13056,15 +13062,21 @@
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I252" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="J252" s="2">
         <f>SUM(J1:J131)</f>
         <v>60</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I253" s="2" t="s">
+        <v>1065</v>
+      </c>
       <c r="J253" s="2">
-        <f>J252/250</f>
-        <v>0.24</v>
+        <f>J252/250*100</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
